--- a/database/industries/ghaza/ghezar/product/quarterly.xlsx
+++ b/database/industries/ghaza/ghezar/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61743397-9044-48BE-88CE-1E572E7313ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BAF343-D8B1-4465-9AD5-B3295B8A4EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر محصولات</t>
@@ -611,12 +611,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -631,7 +631,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -680,7 +680,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,7 +729,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -781,7 +781,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -792,23 +792,23 @@
       <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
+      <c r="F10" s="9">
+        <v>6837</v>
       </c>
       <c r="G10" s="9">
-        <v>6837</v>
+        <v>1796</v>
       </c>
       <c r="H10" s="9">
-        <v>1796</v>
+        <v>1080</v>
       </c>
       <c r="I10" s="9">
-        <v>1080</v>
+        <v>751</v>
       </c>
       <c r="J10" s="9">
-        <v>751</v>
+        <v>-3627</v>
       </c>
       <c r="K10" s="9">
-        <v>-3627</v>
+        <v>0</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -829,11 +829,11 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2072</v>
-      </c>
-      <c r="F11" s="11">
         <v>1906</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
@@ -843,23 +843,23 @@
       <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>17</v>
+      <c r="J11" s="11">
+        <v>5015</v>
       </c>
       <c r="K11" s="11">
-        <v>5015</v>
+        <v>1652</v>
       </c>
       <c r="L11" s="11">
-        <v>1652</v>
+        <v>1878</v>
       </c>
       <c r="M11" s="11">
-        <v>1878</v>
+        <v>1607</v>
       </c>
       <c r="N11" s="11">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -868,11 +868,11 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>27</v>
-      </c>
-      <c r="F12" s="9">
         <v>29</v>
       </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
@@ -882,8 +882,8 @@
       <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>17</v>
+      <c r="J12" s="9">
+        <v>0</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -913,8 +913,8 @@
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -944,11 +944,11 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>46799</v>
-      </c>
-      <c r="F14" s="9">
         <v>51261</v>
       </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
@@ -958,23 +958,23 @@
       <c r="I14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>17</v>
+      <c r="J14" s="9">
+        <v>13258</v>
       </c>
       <c r="K14" s="9">
-        <v>13258</v>
+        <v>26618</v>
       </c>
       <c r="L14" s="9">
-        <v>26618</v>
+        <v>21543</v>
       </c>
       <c r="M14" s="9">
-        <v>21543</v>
+        <v>26080</v>
       </c>
       <c r="N14" s="9">
-        <v>26080</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36537</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -983,11 +983,11 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>9298</v>
-      </c>
-      <c r="F15" s="11">
         <v>10286</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
@@ -997,23 +997,23 @@
       <c r="I15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>17</v>
+      <c r="J15" s="11">
+        <v>5458</v>
       </c>
       <c r="K15" s="11">
-        <v>5458</v>
+        <v>7178</v>
       </c>
       <c r="L15" s="11">
-        <v>7178</v>
+        <v>7396</v>
       </c>
       <c r="M15" s="11">
-        <v>7396</v>
+        <v>8224</v>
       </c>
       <c r="N15" s="11">
-        <v>8224</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9672</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>720</v>
-      </c>
-      <c r="F16" s="9">
         <v>680</v>
       </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1036,8 +1036,8 @@
       <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>17</v>
+      <c r="J16" s="9">
+        <v>0</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1061,11 +1061,11 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>643</v>
-      </c>
-      <c r="F17" s="11">
         <v>493</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="11" t="s">
         <v>17</v>
       </c>
@@ -1075,8 +1075,8 @@
       <c r="I17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>17</v>
+      <c r="J17" s="11">
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>350</v>
-      </c>
-      <c r="F18" s="9">
         <v>518</v>
       </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
@@ -1114,8 +1114,8 @@
       <c r="I18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>17</v>
+      <c r="J18" s="9">
+        <v>0</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>236</v>
-      </c>
-      <c r="F19" s="11">
         <v>172</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G19" s="11" t="s">
         <v>17</v>
       </c>
@@ -1153,8 +1153,8 @@
       <c r="I19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>17</v>
+      <c r="J19" s="11">
+        <v>0</v>
       </c>
       <c r="K19" s="11">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1178,11 +1178,11 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>486</v>
-      </c>
-      <c r="F20" s="9">
         <v>958</v>
       </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
@@ -1192,8 +1192,8 @@
       <c r="I20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>17</v>
+      <c r="J20" s="9">
+        <v>0</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1219,35 +1219,35 @@
       <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>17</v>
+      <c r="F21" s="11">
+        <v>184341</v>
       </c>
       <c r="G21" s="11">
-        <v>184341</v>
+        <v>44798</v>
       </c>
       <c r="H21" s="11">
-        <v>44798</v>
+        <v>53880</v>
       </c>
       <c r="I21" s="11">
-        <v>53880</v>
+        <v>49548</v>
       </c>
       <c r="J21" s="11">
-        <v>49548</v>
+        <v>-119662</v>
       </c>
       <c r="K21" s="11">
-        <v>-119662</v>
+        <v>2359</v>
       </c>
       <c r="L21" s="11">
-        <v>2359</v>
+        <v>2692</v>
       </c>
       <c r="M21" s="11">
-        <v>2692</v>
+        <v>2285</v>
       </c>
       <c r="N21" s="11">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1270,8 +1270,8 @@
       <c r="I22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>17</v>
+      <c r="J22" s="9">
+        <v>0</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1297,35 +1297,35 @@
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>17</v>
+      <c r="F23" s="11">
+        <v>6125</v>
       </c>
       <c r="G23" s="11">
-        <v>6125</v>
+        <v>1207</v>
       </c>
       <c r="H23" s="11">
-        <v>1207</v>
+        <v>1401</v>
       </c>
       <c r="I23" s="11">
-        <v>1401</v>
+        <v>1482</v>
       </c>
       <c r="J23" s="11">
-        <v>1482</v>
+        <v>1335</v>
       </c>
       <c r="K23" s="11">
-        <v>1335</v>
+        <v>699</v>
       </c>
       <c r="L23" s="11">
-        <v>699</v>
+        <v>1818</v>
       </c>
       <c r="M23" s="11">
-        <v>1818</v>
+        <v>1099</v>
       </c>
       <c r="N23" s="11">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1336,72 +1336,72 @@
       <c r="E24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>17</v>
+      <c r="F24" s="9">
+        <v>39699</v>
       </c>
       <c r="G24" s="9">
-        <v>39699</v>
+        <v>7990</v>
       </c>
       <c r="H24" s="9">
-        <v>7990</v>
+        <v>10683</v>
       </c>
       <c r="I24" s="9">
-        <v>10683</v>
+        <v>13252</v>
       </c>
       <c r="J24" s="9">
-        <v>13252</v>
+        <v>-24549</v>
       </c>
       <c r="K24" s="9">
-        <v>-24549</v>
+        <v>264</v>
       </c>
       <c r="L24" s="9">
-        <v>264</v>
+        <v>1425</v>
       </c>
       <c r="M24" s="9">
-        <v>1425</v>
+        <v>3738</v>
       </c>
       <c r="N24" s="9">
-        <v>3738</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>60631</v>
+        <v>66303</v>
       </c>
       <c r="F25" s="13">
-        <v>66303</v>
+        <v>237002</v>
       </c>
       <c r="G25" s="13">
-        <v>237002</v>
+        <v>55791</v>
       </c>
       <c r="H25" s="13">
-        <v>55791</v>
+        <v>67044</v>
       </c>
       <c r="I25" s="13">
-        <v>67044</v>
+        <v>65033</v>
       </c>
       <c r="J25" s="13">
-        <v>65033</v>
+        <v>-122772</v>
       </c>
       <c r="K25" s="13">
-        <v>-122772</v>
+        <v>38770</v>
       </c>
       <c r="L25" s="13">
-        <v>38770</v>
+        <v>36752</v>
       </c>
       <c r="M25" s="13">
-        <v>36752</v>
+        <v>43033</v>
       </c>
       <c r="N25" s="13">
-        <v>43033</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>61304</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1416,7 +1416,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>33</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
@@ -1509,23 +1509,23 @@
       <c r="E31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>17</v>
+      <c r="F31" s="9">
+        <v>2074</v>
       </c>
       <c r="G31" s="9">
-        <v>2074</v>
+        <v>1438</v>
       </c>
       <c r="H31" s="9">
-        <v>1438</v>
+        <v>2391</v>
       </c>
       <c r="I31" s="9">
-        <v>2391</v>
-      </c>
-      <c r="J31" s="9">
         <v>3179</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>17</v>
+      <c r="J31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
       </c>
       <c r="L31" s="9">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1546,17 +1546,17 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>-3100</v>
+        <v>1725</v>
       </c>
       <c r="F32" s="11">
-        <v>1725</v>
+        <v>-890</v>
       </c>
       <c r="G32" s="11">
-        <v>-890</v>
-      </c>
-      <c r="H32" s="11">
         <v>-284</v>
       </c>
+      <c r="H32" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I32" s="11" t="s">
         <v>17</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>18</v>
       </c>
@@ -1585,11 +1585,11 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>2026</v>
-      </c>
-      <c r="F33" s="9">
         <v>1925</v>
       </c>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G33" s="9" t="s">
         <v>17</v>
       </c>
@@ -1602,20 +1602,20 @@
       <c r="J33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>17</v>
+      <c r="K33" s="9">
+        <v>1616</v>
       </c>
       <c r="L33" s="9">
-        <v>1616</v>
+        <v>2250</v>
       </c>
       <c r="M33" s="9">
-        <v>2250</v>
+        <v>1588</v>
       </c>
       <c r="N33" s="9">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
@@ -1626,8 +1626,8 @@
       <c r="E34" s="11">
         <v>18</v>
       </c>
-      <c r="F34" s="11">
-        <v>18</v>
+      <c r="F34" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>17</v>
@@ -1641,8 +1641,8 @@
       <c r="J34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>17</v>
+      <c r="K34" s="11">
+        <v>0</v>
       </c>
       <c r="L34" s="11">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>20</v>
       </c>
@@ -1666,20 +1666,20 @@
       <c r="F35" s="9">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>17</v>
+      <c r="G35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
       </c>
       <c r="I35" s="9">
         <v>0</v>
       </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>17</v>
+      <c r="J35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
       </c>
       <c r="L35" s="9">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
@@ -1700,11 +1700,11 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>40762</v>
-      </c>
-      <c r="F36" s="11">
         <v>45735</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G36" s="11" t="s">
         <v>17</v>
       </c>
@@ -1717,20 +1717,20 @@
       <c r="J36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>17</v>
+      <c r="K36" s="11">
+        <v>26408</v>
       </c>
       <c r="L36" s="11">
-        <v>26408</v>
+        <v>21269</v>
       </c>
       <c r="M36" s="11">
-        <v>21269</v>
+        <v>26711</v>
       </c>
       <c r="N36" s="11">
-        <v>26711</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35679</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>22</v>
       </c>
@@ -1739,11 +1739,11 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>8060</v>
-      </c>
-      <c r="F37" s="9">
         <v>10009</v>
       </c>
+      <c r="F37" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G37" s="9" t="s">
         <v>17</v>
       </c>
@@ -1756,20 +1756,20 @@
       <c r="J37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>17</v>
+      <c r="K37" s="9">
+        <v>7419</v>
       </c>
       <c r="L37" s="9">
-        <v>7419</v>
+        <v>7261</v>
       </c>
       <c r="M37" s="9">
-        <v>7261</v>
+        <v>8354</v>
       </c>
       <c r="N37" s="9">
-        <v>8354</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
@@ -1778,11 +1778,11 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>603</v>
-      </c>
-      <c r="F38" s="11">
         <v>577</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G38" s="11" t="s">
         <v>17</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="J38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>17</v>
+      <c r="K38" s="11">
+        <v>0</v>
       </c>
       <c r="L38" s="11">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>24</v>
       </c>
@@ -1817,11 +1817,11 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>459</v>
-      </c>
-      <c r="F39" s="9">
         <v>429</v>
       </c>
+      <c r="F39" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G39" s="9" t="s">
         <v>17</v>
       </c>
@@ -1834,8 +1834,8 @@
       <c r="J39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
+      <c r="K39" s="9">
+        <v>0</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>25</v>
       </c>
@@ -1856,11 +1856,11 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>354</v>
-      </c>
-      <c r="F40" s="11">
         <v>508</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G40" s="11" t="s">
         <v>17</v>
       </c>
@@ -1873,8 +1873,8 @@
       <c r="J40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>17</v>
+      <c r="K40" s="11">
+        <v>0</v>
       </c>
       <c r="L40" s="11">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>26</v>
       </c>
@@ -1895,11 +1895,11 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>88</v>
-      </c>
-      <c r="F41" s="9">
         <v>222</v>
       </c>
+      <c r="F41" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G41" s="9" t="s">
         <v>17</v>
       </c>
@@ -1912,8 +1912,8 @@
       <c r="J41" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>17</v>
+      <c r="K41" s="9">
+        <v>0</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>27</v>
       </c>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>277</v>
-      </c>
-      <c r="F42" s="11">
         <v>731</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G42" s="11" t="s">
         <v>17</v>
       </c>
@@ -1951,8 +1951,8 @@
       <c r="J42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>17</v>
+      <c r="K42" s="11">
+        <v>0</v>
       </c>
       <c r="L42" s="11">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>28</v>
       </c>
@@ -1975,35 +1975,35 @@
       <c r="E43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>17</v>
+      <c r="F43" s="9">
+        <v>44621</v>
       </c>
       <c r="G43" s="9">
-        <v>44621</v>
+        <v>45424</v>
       </c>
       <c r="H43" s="9">
-        <v>45424</v>
+        <v>93813</v>
       </c>
       <c r="I43" s="9">
-        <v>93813</v>
-      </c>
-      <c r="J43" s="9">
         <v>134164</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>17</v>
+      <c r="J43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="9">
+        <v>2377</v>
       </c>
       <c r="L43" s="9">
-        <v>2377</v>
+        <v>2791</v>
       </c>
       <c r="M43" s="9">
-        <v>2791</v>
+        <v>2279</v>
       </c>
       <c r="N43" s="9">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>29</v>
       </c>
@@ -2029,8 +2029,8 @@
       <c r="J44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>17</v>
+      <c r="K44" s="11">
+        <v>0</v>
       </c>
       <c r="L44" s="11">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>30</v>
       </c>
@@ -2053,35 +2053,35 @@
       <c r="E45" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>17</v>
+      <c r="F45" s="9">
+        <v>1649</v>
       </c>
       <c r="G45" s="9">
-        <v>1649</v>
+        <v>1211</v>
       </c>
       <c r="H45" s="9">
-        <v>1211</v>
+        <v>1543</v>
       </c>
       <c r="I45" s="9">
-        <v>1543</v>
-      </c>
-      <c r="J45" s="9">
         <v>1366</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>17</v>
+      <c r="J45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="9">
+        <v>581</v>
       </c>
       <c r="L45" s="9">
-        <v>581</v>
+        <v>1597</v>
       </c>
       <c r="M45" s="9">
-        <v>1597</v>
+        <v>1387</v>
       </c>
       <c r="N45" s="9">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>31</v>
       </c>
@@ -2092,72 +2092,72 @@
       <c r="E46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>17</v>
+      <c r="F46" s="11">
+        <v>10014</v>
       </c>
       <c r="G46" s="11">
-        <v>10014</v>
+        <v>7777</v>
       </c>
       <c r="H46" s="11">
-        <v>7777</v>
+        <v>18402</v>
       </c>
       <c r="I46" s="11">
-        <v>18402</v>
-      </c>
-      <c r="J46" s="11">
         <v>29298</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>17</v>
+      <c r="J46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="11">
+        <v>395</v>
       </c>
       <c r="L46" s="11">
-        <v>395</v>
+        <v>1360</v>
       </c>
       <c r="M46" s="11">
-        <v>1360</v>
+        <v>3692</v>
       </c>
       <c r="N46" s="11">
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>49547</v>
+        <v>61879</v>
       </c>
       <c r="F47" s="15">
-        <v>61879</v>
+        <v>57468</v>
       </c>
       <c r="G47" s="15">
-        <v>57468</v>
+        <v>55566</v>
       </c>
       <c r="H47" s="15">
-        <v>55566</v>
+        <v>116149</v>
       </c>
       <c r="I47" s="15">
-        <v>116149</v>
+        <v>168007</v>
       </c>
       <c r="J47" s="15">
-        <v>168007</v>
+        <v>0</v>
       </c>
       <c r="K47" s="15">
-        <v>0</v>
+        <v>38796</v>
       </c>
       <c r="L47" s="15">
-        <v>38796</v>
+        <v>36528</v>
       </c>
       <c r="M47" s="15">
-        <v>36528</v>
+        <v>44011</v>
       </c>
       <c r="N47" s="15">
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>52520</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2172,7 +2172,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2187,7 +2187,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2202,7 +2202,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>36</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2254,7 +2254,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
@@ -2265,23 +2265,23 @@
       <c r="E53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>17</v>
+      <c r="F53" s="9">
+        <v>829230</v>
       </c>
       <c r="G53" s="9">
-        <v>829230</v>
+        <v>739435</v>
       </c>
       <c r="H53" s="9">
-        <v>739435</v>
+        <v>1210284</v>
       </c>
       <c r="I53" s="9">
-        <v>1210284</v>
-      </c>
-      <c r="J53" s="9">
         <v>1519738</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>17</v>
+      <c r="J53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0</v>
       </c>
       <c r="L53" s="9">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>34</v>
       </c>
@@ -2302,17 +2302,17 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>-269641</v>
+        <v>146510</v>
       </c>
       <c r="F54" s="11">
-        <v>146510</v>
+        <v>-83287</v>
       </c>
       <c r="G54" s="11">
-        <v>-83287</v>
-      </c>
-      <c r="H54" s="11">
         <v>-32327</v>
       </c>
+      <c r="H54" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I54" s="11" t="s">
         <v>17</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>18</v>
       </c>
@@ -2341,11 +2341,11 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>322486</v>
-      </c>
-      <c r="F55" s="9">
         <v>455142</v>
       </c>
+      <c r="F55" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G55" s="9" t="s">
         <v>17</v>
       </c>
@@ -2358,20 +2358,20 @@
       <c r="J55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>17</v>
+      <c r="K55" s="9">
+        <v>642592</v>
       </c>
       <c r="L55" s="9">
-        <v>642592</v>
+        <v>1154574</v>
       </c>
       <c r="M55" s="9">
-        <v>1154574</v>
+        <v>939303</v>
       </c>
       <c r="N55" s="9">
-        <v>939303</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1391946</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>19</v>
       </c>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>2555</v>
-      </c>
-      <c r="F56" s="11">
         <v>2429</v>
       </c>
+      <c r="F56" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G56" s="11" t="s">
         <v>17</v>
       </c>
@@ -2397,8 +2397,8 @@
       <c r="J56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="11" t="s">
-        <v>17</v>
+      <c r="K56" s="11">
+        <v>0</v>
       </c>
       <c r="L56" s="11">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>20</v>
       </c>
@@ -2424,20 +2424,20 @@
       <c r="F57" s="9">
         <v>0</v>
       </c>
-      <c r="G57" s="9">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>17</v>
+      <c r="G57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
       </c>
       <c r="I57" s="9">
         <v>0</v>
       </c>
-      <c r="J57" s="9">
-        <v>0</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>17</v>
+      <c r="J57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
       </c>
       <c r="L57" s="9">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>21</v>
       </c>
@@ -2458,11 +2458,11 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>3048991</v>
-      </c>
-      <c r="F58" s="11">
         <v>3686610</v>
       </c>
+      <c r="F58" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G58" s="11" t="s">
         <v>17</v>
       </c>
@@ -2475,20 +2475,20 @@
       <c r="J58" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>17</v>
+      <c r="K58" s="11">
+        <v>6409547</v>
       </c>
       <c r="L58" s="11">
-        <v>6409547</v>
+        <v>5441960</v>
       </c>
       <c r="M58" s="11">
-        <v>5441960</v>
+        <v>6661525</v>
       </c>
       <c r="N58" s="11">
-        <v>6661525</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8892917</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
@@ -2497,11 +2497,11 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>764899</v>
-      </c>
-      <c r="F59" s="9">
         <v>977686</v>
       </c>
+      <c r="F59" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G59" s="9" t="s">
         <v>17</v>
       </c>
@@ -2514,20 +2514,20 @@
       <c r="J59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>17</v>
+      <c r="K59" s="9">
+        <v>2230492</v>
       </c>
       <c r="L59" s="9">
-        <v>2230492</v>
+        <v>2352984</v>
       </c>
       <c r="M59" s="9">
-        <v>2352984</v>
+        <v>2670105</v>
       </c>
       <c r="N59" s="9">
-        <v>2670105</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2940434</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>23</v>
       </c>
@@ -2536,11 +2536,11 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>145763</v>
-      </c>
-      <c r="F60" s="11">
         <v>149781</v>
       </c>
+      <c r="F60" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G60" s="11" t="s">
         <v>17</v>
       </c>
@@ -2553,8 +2553,8 @@
       <c r="J60" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K60" s="11" t="s">
-        <v>17</v>
+      <c r="K60" s="11">
+        <v>0</v>
       </c>
       <c r="L60" s="11">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -2575,11 +2575,11 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>66324</v>
-      </c>
-      <c r="F61" s="9">
         <v>73591</v>
       </c>
+      <c r="F61" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G61" s="9" t="s">
         <v>17</v>
       </c>
@@ -2592,8 +2592,8 @@
       <c r="J61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>17</v>
+      <c r="K61" s="9">
+        <v>0</v>
       </c>
       <c r="L61" s="9">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>25</v>
       </c>
@@ -2614,11 +2614,11 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>32201</v>
-      </c>
-      <c r="F62" s="11">
         <v>45545</v>
       </c>
+      <c r="F62" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G62" s="11" t="s">
         <v>17</v>
       </c>
@@ -2631,8 +2631,8 @@
       <c r="J62" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>17</v>
+      <c r="K62" s="11">
+        <v>0</v>
       </c>
       <c r="L62" s="11">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>26</v>
       </c>
@@ -2653,11 +2653,11 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>20810</v>
-      </c>
-      <c r="F63" s="9">
         <v>56794</v>
       </c>
+      <c r="F63" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G63" s="9" t="s">
         <v>17</v>
       </c>
@@ -2670,8 +2670,8 @@
       <c r="J63" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K63" s="9" t="s">
-        <v>17</v>
+      <c r="K63" s="9">
+        <v>0</v>
       </c>
       <c r="L63" s="9">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>27</v>
       </c>
@@ -2692,11 +2692,11 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>28972</v>
-      </c>
-      <c r="F64" s="11">
         <v>83999</v>
       </c>
+      <c r="F64" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G64" s="11" t="s">
         <v>17</v>
       </c>
@@ -2709,8 +2709,8 @@
       <c r="J64" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>17</v>
+      <c r="K64" s="11">
+        <v>0</v>
       </c>
       <c r="L64" s="11">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>28</v>
       </c>
@@ -2733,35 +2733,35 @@
       <c r="E65" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>17</v>
+      <c r="F65" s="9">
+        <v>3770931</v>
       </c>
       <c r="G65" s="9">
-        <v>3770931</v>
+        <v>3998363</v>
       </c>
       <c r="H65" s="9">
-        <v>3998363</v>
+        <v>7905045</v>
       </c>
       <c r="I65" s="9">
-        <v>7905045</v>
-      </c>
-      <c r="J65" s="9">
         <v>11051312</v>
       </c>
-      <c r="K65" s="9" t="s">
-        <v>17</v>
+      <c r="J65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="9">
+        <v>223500</v>
       </c>
       <c r="L65" s="9">
-        <v>223500</v>
+        <v>326515</v>
       </c>
       <c r="M65" s="9">
-        <v>326515</v>
+        <v>395402</v>
       </c>
       <c r="N65" s="9">
-        <v>395402</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>356994</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>29</v>
       </c>
@@ -2787,8 +2787,8 @@
       <c r="J66" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>17</v>
+      <c r="K66" s="11">
+        <v>0</v>
       </c>
       <c r="L66" s="11">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>30</v>
       </c>
@@ -2811,35 +2811,35 @@
       <c r="E67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>17</v>
+      <c r="F67" s="9">
+        <v>328084</v>
       </c>
       <c r="G67" s="9">
-        <v>328084</v>
+        <v>231719</v>
       </c>
       <c r="H67" s="9">
-        <v>231719</v>
+        <v>303324</v>
       </c>
       <c r="I67" s="9">
-        <v>303324</v>
-      </c>
-      <c r="J67" s="9">
         <v>260885</v>
       </c>
-      <c r="K67" s="9" t="s">
-        <v>17</v>
+      <c r="J67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="9">
+        <v>276484</v>
       </c>
       <c r="L67" s="9">
-        <v>276484</v>
+        <v>643992</v>
       </c>
       <c r="M67" s="9">
-        <v>643992</v>
+        <v>585358</v>
       </c>
       <c r="N67" s="9">
-        <v>585358</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>651232</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>31</v>
       </c>
@@ -2850,72 +2850,72 @@
       <c r="E68" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="11" t="s">
-        <v>17</v>
+      <c r="F68" s="11">
+        <v>1052857</v>
       </c>
       <c r="G68" s="11">
-        <v>1052857</v>
+        <v>830315</v>
       </c>
       <c r="H68" s="11">
-        <v>830315</v>
+        <v>1942528</v>
       </c>
       <c r="I68" s="11">
-        <v>1942528</v>
-      </c>
-      <c r="J68" s="11">
         <v>3078227</v>
       </c>
-      <c r="K68" s="11" t="s">
-        <v>17</v>
+      <c r="J68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="11">
+        <v>38653</v>
       </c>
       <c r="L68" s="11">
-        <v>38653</v>
+        <v>192047</v>
       </c>
       <c r="M68" s="11">
-        <v>192047</v>
+        <v>633846</v>
       </c>
       <c r="N68" s="11">
-        <v>633846</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>283960</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15">
-        <v>4163360</v>
+        <v>5678087</v>
       </c>
       <c r="F69" s="15">
-        <v>5678087</v>
+        <v>5897815</v>
       </c>
       <c r="G69" s="15">
-        <v>5897815</v>
+        <v>5767505</v>
       </c>
       <c r="H69" s="15">
-        <v>5767505</v>
+        <v>11361181</v>
       </c>
       <c r="I69" s="15">
-        <v>11361181</v>
+        <v>15910162</v>
       </c>
       <c r="J69" s="15">
-        <v>15910162</v>
+        <v>0</v>
       </c>
       <c r="K69" s="15">
-        <v>0</v>
+        <v>9821268</v>
       </c>
       <c r="L69" s="15">
-        <v>9821268</v>
+        <v>10112072</v>
       </c>
       <c r="M69" s="15">
-        <v>10112072</v>
+        <v>11885539</v>
       </c>
       <c r="N69" s="15">
-        <v>11885539</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14517483</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2930,7 +2930,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2945,7 +2945,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2960,7 +2960,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>38</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3012,7 +3012,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>15</v>
       </c>
@@ -3023,24 +3023,24 @@
       <c r="E75" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>17</v>
+      <c r="F75" s="9">
+        <v>254072387</v>
       </c>
       <c r="G75" s="9">
-        <v>254072387</v>
+        <v>514210709</v>
       </c>
       <c r="H75" s="9">
-        <v>514210709</v>
+        <v>494070304</v>
       </c>
       <c r="I75" s="9">
-        <v>494070304</v>
+        <v>392708122</v>
       </c>
       <c r="J75" s="9">
-        <v>392708122</v>
-      </c>
-      <c r="K75" s="9">
         <v>478055363</v>
       </c>
+      <c r="K75" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L75" s="9" t="s">
         <v>17</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>34</v>
       </c>
@@ -3060,17 +3060,17 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>86980968</v>
+        <v>84933333</v>
       </c>
       <c r="F76" s="11">
-        <v>84933333</v>
+        <v>93580899</v>
       </c>
       <c r="G76" s="11">
-        <v>93580899</v>
-      </c>
-      <c r="H76" s="11">
         <v>113827465</v>
       </c>
+      <c r="H76" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I76" s="11" t="s">
         <v>17</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>18</v>
       </c>
@@ -3099,11 +3099,11 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>159173741</v>
-      </c>
-      <c r="F77" s="9">
         <v>236437403</v>
       </c>
+      <c r="F77" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G77" s="9" t="s">
         <v>17</v>
       </c>
@@ -3113,23 +3113,23 @@
       <c r="I77" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>17</v>
+      <c r="J77" s="9">
+        <v>426580652</v>
       </c>
       <c r="K77" s="9">
-        <v>426580652</v>
+        <v>397643564</v>
       </c>
       <c r="L77" s="9">
-        <v>397643564</v>
+        <v>513144000</v>
       </c>
       <c r="M77" s="9">
-        <v>513144000</v>
+        <v>591500630</v>
       </c>
       <c r="N77" s="9">
-        <v>591500630</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>560816277</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
@@ -3138,11 +3138,11 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>141944444</v>
-      </c>
-      <c r="F78" s="11">
         <v>134944444</v>
       </c>
+      <c r="F78" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G78" s="11" t="s">
         <v>17</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -3216,11 +3216,11 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>74799838</v>
-      </c>
-      <c r="F80" s="11">
         <v>80608068</v>
       </c>
+      <c r="F80" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G80" s="11" t="s">
         <v>17</v>
       </c>
@@ -3230,23 +3230,23 @@
       <c r="I80" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="11" t="s">
-        <v>17</v>
+      <c r="J80" s="11">
+        <v>81209741</v>
       </c>
       <c r="K80" s="11">
-        <v>81209741</v>
+        <v>242712322</v>
       </c>
       <c r="L80" s="11">
-        <v>242712322</v>
+        <v>255863463</v>
       </c>
       <c r="M80" s="11">
-        <v>255863463</v>
+        <v>249392572</v>
       </c>
       <c r="N80" s="11">
-        <v>249392572</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>249247933</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>22</v>
       </c>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>94900620</v>
-      </c>
-      <c r="F81" s="9">
         <v>97680687</v>
       </c>
+      <c r="F81" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G81" s="9" t="s">
         <v>17</v>
       </c>
@@ -3269,23 +3269,23 @@
       <c r="I81" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="9" t="s">
-        <v>17</v>
+      <c r="J81" s="9">
+        <v>105766642</v>
       </c>
       <c r="K81" s="9">
-        <v>105766642</v>
+        <v>300645909</v>
       </c>
       <c r="L81" s="9">
-        <v>300645909</v>
+        <v>324057843</v>
       </c>
       <c r="M81" s="9">
-        <v>324057843</v>
+        <v>319619943</v>
       </c>
       <c r="N81" s="9">
-        <v>319619943</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>310565484</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>23</v>
       </c>
@@ -3294,11 +3294,11 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>241729685</v>
-      </c>
-      <c r="F82" s="11">
         <v>259585789</v>
       </c>
+      <c r="F82" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G82" s="11" t="s">
         <v>17</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>144496732</v>
-      </c>
-      <c r="F83" s="9">
         <v>171540793</v>
       </c>
+      <c r="F83" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G83" s="9" t="s">
         <v>17</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>25</v>
       </c>
@@ -3372,11 +3372,11 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>90963277</v>
-      </c>
-      <c r="F84" s="11">
         <v>89655512</v>
       </c>
+      <c r="F84" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G84" s="11" t="s">
         <v>17</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>26</v>
       </c>
@@ -3411,11 +3411,11 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>236477273</v>
-      </c>
-      <c r="F85" s="9">
         <v>255828829</v>
       </c>
+      <c r="F85" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G85" s="9" t="s">
         <v>17</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -3450,11 +3450,11 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>104592058</v>
-      </c>
-      <c r="F86" s="11">
         <v>114909713</v>
       </c>
+      <c r="F86" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G86" s="11" t="s">
         <v>17</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>28</v>
       </c>
@@ -3491,35 +3491,35 @@
       <c r="E87" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>17</v>
+      <c r="F87" s="9">
+        <v>76548737</v>
       </c>
       <c r="G87" s="9">
-        <v>76548737</v>
+        <v>88023138</v>
       </c>
       <c r="H87" s="9">
-        <v>88023138</v>
+        <v>82099087</v>
       </c>
       <c r="I87" s="9">
-        <v>82099087</v>
+        <v>81270117</v>
       </c>
       <c r="J87" s="9">
-        <v>81270117</v>
+        <v>80644350</v>
       </c>
       <c r="K87" s="9">
-        <v>80644350</v>
+        <v>94026083</v>
       </c>
       <c r="L87" s="9">
-        <v>94026083</v>
+        <v>116988535</v>
       </c>
       <c r="M87" s="9">
-        <v>116988535</v>
+        <v>173498025</v>
       </c>
       <c r="N87" s="9">
-        <v>173498025</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>187496849</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>29</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>30</v>
       </c>
@@ -3569,35 +3569,35 @@
       <c r="E89" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>17</v>
+      <c r="F89" s="9">
+        <v>186324140</v>
       </c>
       <c r="G89" s="9">
-        <v>186324140</v>
+        <v>191345169</v>
       </c>
       <c r="H89" s="9">
-        <v>191345169</v>
+        <v>196521456</v>
       </c>
       <c r="I89" s="9">
-        <v>196521456</v>
+        <v>190984627</v>
       </c>
       <c r="J89" s="9">
-        <v>190984627</v>
+        <v>188026398</v>
       </c>
       <c r="K89" s="9">
-        <v>188026398</v>
+        <v>475876076</v>
       </c>
       <c r="L89" s="9">
-        <v>475876076</v>
+        <v>403251096</v>
       </c>
       <c r="M89" s="9">
-        <v>403251096</v>
+        <v>422031723</v>
       </c>
       <c r="N89" s="9">
-        <v>422031723</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>411911448</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3608,35 +3608,35 @@
       <c r="E90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>17</v>
+      <c r="F90" s="11">
+        <v>95763164</v>
       </c>
       <c r="G90" s="11">
-        <v>95763164</v>
+        <v>106765462</v>
       </c>
       <c r="H90" s="11">
-        <v>106765462</v>
+        <v>103958502</v>
       </c>
       <c r="I90" s="11">
-        <v>103958502</v>
+        <v>104043478</v>
       </c>
       <c r="J90" s="11">
-        <v>104043478</v>
+        <v>105990984</v>
       </c>
       <c r="K90" s="11">
-        <v>105990984</v>
+        <v>97855696</v>
       </c>
       <c r="L90" s="11">
-        <v>97855696</v>
+        <v>141211029</v>
       </c>
       <c r="M90" s="11">
-        <v>141211029</v>
+        <v>171680932</v>
       </c>
       <c r="N90" s="11">
-        <v>171680932</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>201963016</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3651,7 +3651,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3666,7 +3666,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3681,7 +3681,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>42</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3733,7 +3733,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>15</v>
       </c>
@@ -3744,23 +3744,23 @@
       <c r="E96" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="9" t="s">
-        <v>17</v>
+      <c r="F96" s="9">
+        <v>-954004</v>
       </c>
       <c r="G96" s="9">
-        <v>-954004</v>
+        <v>-363715</v>
       </c>
       <c r="H96" s="9">
-        <v>-363715</v>
+        <v>-272168</v>
       </c>
       <c r="I96" s="9">
-        <v>-272168</v>
+        <v>-183141</v>
       </c>
       <c r="J96" s="9">
-        <v>-183141</v>
+        <v>819024</v>
       </c>
       <c r="K96" s="9">
-        <v>819024</v>
+        <v>0</v>
       </c>
       <c r="L96" s="9">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>34</v>
       </c>
@@ -3789,8 +3789,8 @@
       <c r="G97" s="11">
         <v>0</v>
       </c>
-      <c r="H97" s="11">
-        <v>0</v>
+      <c r="H97" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>17</v>
@@ -3811,7 +3811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>18</v>
       </c>
@@ -3820,11 +3820,11 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>-231237</v>
-      </c>
-      <c r="F98" s="9">
         <v>-334945</v>
       </c>
+      <c r="F98" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G98" s="9" t="s">
         <v>17</v>
       </c>
@@ -3834,23 +3834,23 @@
       <c r="I98" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J98" s="9" t="s">
-        <v>17</v>
+      <c r="J98" s="9">
+        <v>-1033342</v>
       </c>
       <c r="K98" s="9">
-        <v>-1033342</v>
+        <v>-462985</v>
       </c>
       <c r="L98" s="9">
-        <v>-462985</v>
+        <v>-1052193</v>
       </c>
       <c r="M98" s="9">
-        <v>-1052193</v>
+        <v>-913637</v>
       </c>
       <c r="N98" s="9">
-        <v>-913637</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1398177</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -3859,11 +3859,11 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>-825</v>
-      </c>
-      <c r="F99" s="11">
         <v>43</v>
       </c>
+      <c r="F99" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G99" s="11" t="s">
         <v>17</v>
       </c>
@@ -3873,8 +3873,8 @@
       <c r="I99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="11" t="s">
-        <v>17</v>
+      <c r="J99" s="11">
+        <v>0</v>
       </c>
       <c r="K99" s="11">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>20</v>
       </c>
@@ -3903,11 +3903,11 @@
       <c r="F100" s="9">
         <v>0</v>
       </c>
-      <c r="G100" s="9">
-        <v>0</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>17</v>
+      <c r="G100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0</v>
       </c>
       <c r="I100" s="9">
         <v>0</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>21</v>
       </c>
@@ -3937,11 +3937,11 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>-1680747</v>
-      </c>
-      <c r="F101" s="11">
         <v>-2055461</v>
       </c>
+      <c r="F101" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G101" s="11" t="s">
         <v>17</v>
       </c>
@@ -3951,23 +3951,23 @@
       <c r="I101" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J101" s="11" t="s">
-        <v>17</v>
+      <c r="J101" s="11">
+        <v>-8932259</v>
       </c>
       <c r="K101" s="11">
-        <v>-8932259</v>
+        <v>-4343105</v>
       </c>
       <c r="L101" s="11">
-        <v>-4343105</v>
+        <v>-4244994</v>
       </c>
       <c r="M101" s="11">
-        <v>-4244994</v>
+        <v>-5022395</v>
       </c>
       <c r="N101" s="11">
-        <v>-5022395</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6636954</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>22</v>
       </c>
@@ -3976,11 +3976,11 @@
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
-        <v>-278275</v>
-      </c>
-      <c r="F102" s="9">
         <v>-516238</v>
       </c>
+      <c r="F102" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G102" s="9" t="s">
         <v>17</v>
       </c>
@@ -3990,23 +3990,23 @@
       <c r="I102" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="9" t="s">
-        <v>17</v>
+      <c r="J102" s="9">
+        <v>-2603851</v>
       </c>
       <c r="K102" s="9">
-        <v>-2603851</v>
+        <v>-1364518</v>
       </c>
       <c r="L102" s="9">
-        <v>-1364518</v>
+        <v>-1604991</v>
       </c>
       <c r="M102" s="9">
-        <v>-1604991</v>
+        <v>-1798101</v>
       </c>
       <c r="N102" s="9">
-        <v>-1798101</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1906166</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>23</v>
       </c>
@@ -4015,11 +4015,11 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>-41146</v>
-      </c>
-      <c r="F103" s="11">
         <v>-59314</v>
       </c>
+      <c r="F103" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G103" s="11" t="s">
         <v>17</v>
       </c>
@@ -4029,8 +4029,8 @@
       <c r="I103" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J103" s="11" t="s">
-        <v>17</v>
+      <c r="J103" s="11">
+        <v>0</v>
       </c>
       <c r="K103" s="11">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>24</v>
       </c>
@@ -4054,11 +4054,11 @@
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9">
-        <v>-32186</v>
-      </c>
-      <c r="F104" s="9">
         <v>-41451</v>
       </c>
+      <c r="F104" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G104" s="9" t="s">
         <v>17</v>
       </c>
@@ -4068,8 +4068,8 @@
       <c r="I104" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J104" s="9" t="s">
-        <v>17</v>
+      <c r="J104" s="9">
+        <v>0</v>
       </c>
       <c r="K104" s="9">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>25</v>
       </c>
@@ -4093,11 +4093,11 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>-13151</v>
-      </c>
-      <c r="F105" s="11">
         <v>-29299</v>
       </c>
+      <c r="F105" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G105" s="11" t="s">
         <v>17</v>
       </c>
@@ -4107,8 +4107,8 @@
       <c r="I105" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J105" s="11" t="s">
-        <v>17</v>
+      <c r="J105" s="11">
+        <v>0</v>
       </c>
       <c r="K105" s="11">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>26</v>
       </c>
@@ -4132,11 +4132,11 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>-2168</v>
-      </c>
-      <c r="F106" s="9">
         <v>-20259</v>
       </c>
+      <c r="F106" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G106" s="9" t="s">
         <v>17</v>
       </c>
@@ -4146,8 +4146,8 @@
       <c r="I106" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J106" s="9" t="s">
-        <v>17</v>
+      <c r="J106" s="9">
+        <v>0</v>
       </c>
       <c r="K106" s="9">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -4171,11 +4171,11 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>-12113</v>
-      </c>
-      <c r="F107" s="11">
         <v>-47043</v>
       </c>
+      <c r="F107" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G107" s="11" t="s">
         <v>17</v>
       </c>
@@ -4185,8 +4185,8 @@
       <c r="I107" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J107" s="11" t="s">
-        <v>17</v>
+      <c r="J107" s="11">
+        <v>0</v>
       </c>
       <c r="K107" s="11">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>28</v>
       </c>
@@ -4212,35 +4212,35 @@
       <c r="E108" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>17</v>
+      <c r="F108" s="9">
+        <v>-7169061</v>
       </c>
       <c r="G108" s="9">
-        <v>-7169061</v>
+        <v>-2418641</v>
       </c>
       <c r="H108" s="9">
-        <v>-2418641</v>
+        <v>-2931160</v>
       </c>
       <c r="I108" s="9">
-        <v>-2931160</v>
+        <v>-2670972</v>
       </c>
       <c r="J108" s="9">
-        <v>-2670972</v>
+        <v>6467520</v>
       </c>
       <c r="K108" s="9">
-        <v>6467520</v>
+        <v>-390925</v>
       </c>
       <c r="L108" s="9">
-        <v>-390925</v>
+        <v>-542578</v>
       </c>
       <c r="M108" s="9">
-        <v>-542578</v>
+        <v>-433666</v>
       </c>
       <c r="N108" s="9">
-        <v>-433666</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-353000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>29</v>
       </c>
@@ -4263,8 +4263,8 @@
       <c r="I109" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J109" s="11" t="s">
-        <v>17</v>
+      <c r="J109" s="11">
+        <v>0</v>
       </c>
       <c r="K109" s="11">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>30</v>
       </c>
@@ -4290,35 +4290,35 @@
       <c r="E110" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>17</v>
+      <c r="F110" s="9">
+        <v>-477912</v>
       </c>
       <c r="G110" s="9">
-        <v>-477912</v>
+        <v>-121885</v>
       </c>
       <c r="H110" s="9">
-        <v>-121885</v>
+        <v>-169877</v>
       </c>
       <c r="I110" s="9">
-        <v>-169877</v>
+        <v>-159370</v>
       </c>
       <c r="J110" s="9">
-        <v>-159370</v>
+        <v>-180186</v>
       </c>
       <c r="K110" s="9">
-        <v>-180186</v>
+        <v>-149644</v>
       </c>
       <c r="L110" s="9">
-        <v>-149644</v>
+        <v>-404472</v>
       </c>
       <c r="M110" s="9">
-        <v>-404472</v>
+        <v>-396770</v>
       </c>
       <c r="N110" s="9">
-        <v>-396770</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-443780</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>31</v>
       </c>
@@ -4329,72 +4329,72 @@
       <c r="E111" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>17</v>
+      <c r="F111" s="11">
+        <v>-1918366</v>
       </c>
       <c r="G111" s="11">
-        <v>-1918366</v>
+        <v>-515887</v>
       </c>
       <c r="H111" s="11">
-        <v>-515887</v>
+        <v>-801248</v>
       </c>
       <c r="I111" s="11">
-        <v>-801248</v>
+        <v>-887145</v>
       </c>
       <c r="J111" s="11">
-        <v>-887145</v>
+        <v>1685156</v>
       </c>
       <c r="K111" s="11">
-        <v>1685156</v>
+        <v>-72649</v>
       </c>
       <c r="L111" s="11">
-        <v>-72649</v>
+        <v>-276000</v>
       </c>
       <c r="M111" s="11">
-        <v>-276000</v>
+        <v>-730033</v>
       </c>
       <c r="N111" s="11">
-        <v>-730033</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-328474</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
-        <v>-2291848</v>
+        <v>-3103967</v>
       </c>
       <c r="F112" s="15">
-        <v>-3103967</v>
+        <v>-10519343</v>
       </c>
       <c r="G112" s="15">
-        <v>-10519343</v>
+        <v>-3420128</v>
       </c>
       <c r="H112" s="15">
-        <v>-3420128</v>
+        <v>-4174453</v>
       </c>
       <c r="I112" s="15">
-        <v>-4174453</v>
+        <v>-3900628</v>
       </c>
       <c r="J112" s="15">
-        <v>-3900628</v>
+        <v>-3777938</v>
       </c>
       <c r="K112" s="15">
-        <v>-3777938</v>
+        <v>-6783826</v>
       </c>
       <c r="L112" s="15">
-        <v>-6783826</v>
+        <v>-8125228</v>
       </c>
       <c r="M112" s="15">
-        <v>-8125228</v>
+        <v>-9294602</v>
       </c>
       <c r="N112" s="15">
-        <v>-9294602</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-11066551</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4409,7 +4409,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4424,7 +4424,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4439,7 +4439,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>43</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4491,7 +4491,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>15</v>
       </c>
@@ -4502,23 +4502,23 @@
       <c r="E118" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>17</v>
+      <c r="F118" s="9">
+        <v>769369</v>
       </c>
       <c r="G118" s="9">
-        <v>769369</v>
+        <v>375720</v>
       </c>
       <c r="H118" s="9">
-        <v>375720</v>
+        <v>198681</v>
       </c>
       <c r="I118" s="9">
-        <v>198681</v>
+        <v>126313</v>
       </c>
       <c r="J118" s="9">
-        <v>126313</v>
+        <v>-700714</v>
       </c>
       <c r="K118" s="9">
-        <v>-700714</v>
+        <v>0</v>
       </c>
       <c r="L118" s="9">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>34</v>
       </c>
@@ -4539,17 +4539,17 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>-269641</v>
+        <v>146510</v>
       </c>
       <c r="F119" s="11">
-        <v>146510</v>
+        <v>-83287</v>
       </c>
       <c r="G119" s="11">
-        <v>-83287</v>
-      </c>
-      <c r="H119" s="11">
         <v>-32327</v>
       </c>
+      <c r="H119" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I119" s="11" t="s">
         <v>17</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>18</v>
       </c>
@@ -4578,11 +4578,11 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>91249</v>
-      </c>
-      <c r="F120" s="9">
         <v>120197</v>
       </c>
+      <c r="F120" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G120" s="9" t="s">
         <v>17</v>
       </c>
@@ -4592,23 +4592,23 @@
       <c r="I120" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J120" s="9" t="s">
-        <v>17</v>
+      <c r="J120" s="9">
+        <v>915705</v>
       </c>
       <c r="K120" s="9">
-        <v>915705</v>
+        <v>179607</v>
       </c>
       <c r="L120" s="9">
-        <v>179607</v>
+        <v>102381</v>
       </c>
       <c r="M120" s="9">
-        <v>102381</v>
+        <v>25666</v>
       </c>
       <c r="N120" s="9">
-        <v>25666</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6231</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>19</v>
       </c>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>1730</v>
-      </c>
-      <c r="F121" s="11">
         <v>2472</v>
       </c>
+      <c r="F121" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G121" s="11" t="s">
         <v>17</v>
       </c>
@@ -4631,8 +4631,8 @@
       <c r="I121" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J121" s="11" t="s">
-        <v>17</v>
+      <c r="J121" s="11">
+        <v>0</v>
       </c>
       <c r="K121" s="11">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>20</v>
       </c>
@@ -4661,11 +4661,11 @@
       <c r="F122" s="9">
         <v>0</v>
       </c>
-      <c r="G122" s="9">
-        <v>0</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>17</v>
+      <c r="G122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="9">
+        <v>0</v>
       </c>
       <c r="I122" s="9">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>21</v>
       </c>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>1368244</v>
-      </c>
-      <c r="F123" s="11">
         <v>1631149</v>
       </c>
+      <c r="F123" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G123" s="11" t="s">
         <v>17</v>
       </c>
@@ -4709,23 +4709,23 @@
       <c r="I123" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J123" s="11" t="s">
-        <v>17</v>
+      <c r="J123" s="11">
+        <v>3797774</v>
       </c>
       <c r="K123" s="11">
-        <v>3797774</v>
+        <v>2066442</v>
       </c>
       <c r="L123" s="11">
-        <v>2066442</v>
+        <v>1196966</v>
       </c>
       <c r="M123" s="11">
-        <v>1196966</v>
+        <v>1639130</v>
       </c>
       <c r="N123" s="11">
-        <v>1639130</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2255963</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>22</v>
       </c>
@@ -4734,11 +4734,11 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>486624</v>
-      </c>
-      <c r="F124" s="9">
         <v>461448</v>
       </c>
+      <c r="F124" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G124" s="9" t="s">
         <v>17</v>
       </c>
@@ -4748,23 +4748,23 @@
       <c r="I124" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J124" s="9" t="s">
-        <v>17</v>
+      <c r="J124" s="9">
+        <v>1277679</v>
       </c>
       <c r="K124" s="9">
-        <v>1277679</v>
+        <v>865974</v>
       </c>
       <c r="L124" s="9">
-        <v>865974</v>
+        <v>747993</v>
       </c>
       <c r="M124" s="9">
-        <v>747993</v>
+        <v>872004</v>
       </c>
       <c r="N124" s="9">
-        <v>872004</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1034268</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>23</v>
       </c>
@@ -4773,11 +4773,11 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>104617</v>
-      </c>
-      <c r="F125" s="11">
         <v>90467</v>
       </c>
+      <c r="F125" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G125" s="11" t="s">
         <v>17</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="I125" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="11" t="s">
-        <v>17</v>
+      <c r="J125" s="11">
+        <v>0</v>
       </c>
       <c r="K125" s="11">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>24</v>
       </c>
@@ -4812,11 +4812,11 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
-        <v>34138</v>
-      </c>
-      <c r="F126" s="9">
         <v>32140</v>
       </c>
+      <c r="F126" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G126" s="9" t="s">
         <v>17</v>
       </c>
@@ -4826,8 +4826,8 @@
       <c r="I126" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="9" t="s">
-        <v>17</v>
+      <c r="J126" s="9">
+        <v>0</v>
       </c>
       <c r="K126" s="9">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>25</v>
       </c>
@@ -4851,11 +4851,11 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>19050</v>
-      </c>
-      <c r="F127" s="11">
         <v>16246</v>
       </c>
+      <c r="F127" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G127" s="11" t="s">
         <v>17</v>
       </c>
@@ -4865,8 +4865,8 @@
       <c r="I127" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J127" s="11" t="s">
-        <v>17</v>
+      <c r="J127" s="11">
+        <v>0</v>
       </c>
       <c r="K127" s="11">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>26</v>
       </c>
@@ -4890,11 +4890,11 @@
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9">
-        <v>18642</v>
-      </c>
-      <c r="F128" s="9">
         <v>36535</v>
       </c>
+      <c r="F128" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G128" s="9" t="s">
         <v>17</v>
       </c>
@@ -4904,8 +4904,8 @@
       <c r="I128" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="9" t="s">
-        <v>17</v>
+      <c r="J128" s="9">
+        <v>0</v>
       </c>
       <c r="K128" s="9">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>27</v>
       </c>
@@ -4929,11 +4929,11 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
-        <v>16859</v>
-      </c>
-      <c r="F129" s="11">
         <v>36956</v>
       </c>
+      <c r="F129" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G129" s="11" t="s">
         <v>17</v>
       </c>
@@ -4943,8 +4943,8 @@
       <c r="I129" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J129" s="11" t="s">
-        <v>17</v>
+      <c r="J129" s="11">
+        <v>0</v>
       </c>
       <c r="K129" s="11">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>28</v>
       </c>
@@ -4970,35 +4970,35 @@
       <c r="E130" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="9" t="s">
-        <v>17</v>
+      <c r="F130" s="9">
+        <v>5705518</v>
       </c>
       <c r="G130" s="9">
-        <v>5705518</v>
+        <v>1579722</v>
       </c>
       <c r="H130" s="9">
-        <v>1579722</v>
+        <v>1422883</v>
       </c>
       <c r="I130" s="9">
-        <v>1422883</v>
+        <v>983095</v>
       </c>
       <c r="J130" s="9">
-        <v>983095</v>
+        <v>-2900289</v>
       </c>
       <c r="K130" s="9">
-        <v>-2900289</v>
+        <v>-167425</v>
       </c>
       <c r="L130" s="9">
-        <v>-167425</v>
+        <v>-216063</v>
       </c>
       <c r="M130" s="9">
-        <v>-216063</v>
+        <v>-38264</v>
       </c>
       <c r="N130" s="9">
-        <v>-38264</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>29</v>
       </c>
@@ -5021,8 +5021,8 @@
       <c r="I131" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J131" s="11" t="s">
-        <v>17</v>
+      <c r="J131" s="11">
+        <v>0</v>
       </c>
       <c r="K131" s="11">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>30</v>
       </c>
@@ -5048,35 +5048,35 @@
       <c r="E132" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F132" s="9" t="s">
-        <v>17</v>
+      <c r="F132" s="9">
+        <v>589539</v>
       </c>
       <c r="G132" s="9">
-        <v>589539</v>
+        <v>109834</v>
       </c>
       <c r="H132" s="9">
-        <v>109834</v>
+        <v>132373</v>
       </c>
       <c r="I132" s="9">
-        <v>132373</v>
+        <v>101515</v>
       </c>
       <c r="J132" s="9">
-        <v>101515</v>
+        <v>61992</v>
       </c>
       <c r="K132" s="9">
-        <v>61992</v>
+        <v>126840</v>
       </c>
       <c r="L132" s="9">
-        <v>126840</v>
+        <v>239520</v>
       </c>
       <c r="M132" s="9">
-        <v>239520</v>
+        <v>188588</v>
       </c>
       <c r="N132" s="9">
-        <v>188588</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>207452</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>31</v>
       </c>
@@ -5087,69 +5087,69 @@
       <c r="E133" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>17</v>
+      <c r="F133" s="11">
+        <v>1639044</v>
       </c>
       <c r="G133" s="11">
-        <v>1639044</v>
+        <v>314428</v>
       </c>
       <c r="H133" s="11">
-        <v>314428</v>
+        <v>408725</v>
       </c>
       <c r="I133" s="11">
-        <v>408725</v>
+        <v>381145</v>
       </c>
       <c r="J133" s="11">
-        <v>381145</v>
+        <v>-889259</v>
       </c>
       <c r="K133" s="11">
-        <v>-889259</v>
+        <v>-33996</v>
       </c>
       <c r="L133" s="11">
-        <v>-33996</v>
+        <v>-83953</v>
       </c>
       <c r="M133" s="11">
-        <v>-83953</v>
+        <v>-96187</v>
       </c>
       <c r="N133" s="11">
-        <v>-96187</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-44514</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="15">
-        <v>1871512</v>
+        <v>2574120</v>
       </c>
       <c r="F134" s="15">
-        <v>2574120</v>
+        <v>8620183</v>
       </c>
       <c r="G134" s="15">
-        <v>8620183</v>
+        <v>2347377</v>
       </c>
       <c r="H134" s="15">
-        <v>2347377</v>
+        <v>2162662</v>
       </c>
       <c r="I134" s="15">
-        <v>2162662</v>
+        <v>1592068</v>
       </c>
       <c r="J134" s="15">
-        <v>1592068</v>
+        <v>1562888</v>
       </c>
       <c r="K134" s="15">
-        <v>1562888</v>
+        <v>3037442</v>
       </c>
       <c r="L134" s="15">
-        <v>3037442</v>
+        <v>1986844</v>
       </c>
       <c r="M134" s="15">
-        <v>1986844</v>
+        <v>2590937</v>
       </c>
       <c r="N134" s="15">
-        <v>2590937</v>
+        <v>3450932</v>
       </c>
     </row>
   </sheetData>
